--- a/tigard/testjig/design-input.xlsx
+++ b/tigard/testjig/design-input.xlsx
@@ -11,6 +11,7 @@
     <sheet name="probes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="support pins" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="connector assignments" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="105">
   <si>
     <t xml:space="preserve">source ref des</t>
   </si>
@@ -63,250 +64,280 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">VTARGET_J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/UART_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE_CDONE_J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/~{UART_RTS}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/~{UART_CTS}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/~{UART_DTR}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/~{UART_DSR}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/~{UART_DCD}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1V8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTARGET_SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/CORTEX_PIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWDIO_SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIPO_SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI_SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP21</t>
+  </si>
+  <si>
     <t xml:space="preserve">VTARGET</t>
   </si>
   <si>
-    <t xml:space="preserve">TP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTTOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/UART_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">TP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIPO_J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net-(J4-Pad4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net-(J4-Pad5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK_J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPI_J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTARGET_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLK_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPI_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIPO_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/xPB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/xPB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE_CDONE_J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1</t>
   </si>
   <si>
     <t xml:space="preserve">/ICE_CDONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/~{UART_RTS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/~{UART_CTS}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/~{UART_DTR}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/~{UART_DSR}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/~{UART_DCD}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+3V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+1V8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CORTEX_PIN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/SWDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/DI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net-(J4-Pad4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net-(J4-Pad5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/CLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/COPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/xPB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/xPB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1</t>
   </si>
 </sst>
 </file>
@@ -428,11 +459,11 @@
   </sheetPr>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.84"/>
@@ -523,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">IF((C3="GND"),"GND", "SIGNAL")</f>
@@ -559,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,13 +598,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">IF((C4="GND"),"GND", "SIGNAL")</f>
@@ -595,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">IF((C5="GND"),"GND", "SIGNAL")</f>
@@ -631,7 +662,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">IF((C6="GND"),"GND", "SIGNAL")</f>
@@ -667,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,13 +706,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">IF((C7="GND"),"GND", "SIGNAL")</f>
@@ -703,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">IF((C8="GND"),"GND", "SIGNAL")</f>
@@ -739,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,13 +778,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">IF((C9="GND"),"GND", "SIGNAL")</f>
@@ -775,7 +806,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">IF((C10="GND"),"GND", "SIGNAL")</f>
@@ -811,21 +842,21 @@
         <v>17</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">IF((C11="GND"),"GND", "SIGNAL")</f>
@@ -847,21 +878,21 @@
         <v>17</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">IF((C12="GND"),"GND", "SIGNAL")</f>
@@ -883,21 +914,21 @@
         <v>17</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">IF((C13="GND"),"GND", "SIGNAL")</f>
@@ -919,21 +950,21 @@
         <v>17</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">IF((C14="GND"),"GND", "SIGNAL")</f>
@@ -955,18 +986,18 @@
         <v>17</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>53</v>
@@ -991,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1066,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>57</v>
@@ -1063,7 +1094,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1102,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>59</v>
@@ -1099,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1138,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>61</v>
@@ -1135,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1174,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>63</v>
@@ -1171,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1210,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>59</v>
@@ -1207,7 +1238,7 @@
         <v>17</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">IF((C22="GND"),"GND", "SIGNAL")</f>
@@ -1243,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,13 +1282,13 @@
         <v>66</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">IF((C23="GND"),"GND", "SIGNAL")</f>
@@ -1279,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,13 +1318,13 @@
         <v>66</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">IF((C24="GND"),"GND", "SIGNAL")</f>
@@ -1315,7 +1346,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,13 +1354,13 @@
         <v>66</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">IF((C25="GND"),"GND", "SIGNAL")</f>
@@ -1351,7 +1382,7 @@
         <v>17</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,13 +1390,13 @@
         <v>66</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">IF((C26="GND"),"GND", "SIGNAL")</f>
@@ -1387,7 +1418,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,13 +1426,13 @@
         <v>66</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">IF((C27="GND"),"GND", "SIGNAL")</f>
@@ -1423,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,13 +1462,13 @@
         <v>66</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E28" s="0" t="str">
         <f aca="false">IF((C28="GND"),"GND", "SIGNAL")</f>
@@ -1459,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,13 +1498,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">IF((C29="GND"),"GND", "SIGNAL")</f>
@@ -1495,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">IF((C30="GND"),"GND", "SIGNAL")</f>
@@ -1531,21 +1562,21 @@
         <v>17</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">IF((C31="GND"),"GND", "SIGNAL")</f>
@@ -1567,21 +1598,21 @@
         <v>17</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D32" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E32" s="0" t="str">
         <f aca="false">IF((C32="GND"),"GND", "SIGNAL")</f>
@@ -1603,21 +1634,21 @@
         <v>17</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E33" s="0" t="str">
         <f aca="false">IF((C33="GND"),"GND", "SIGNAL")</f>
@@ -1639,21 +1670,21 @@
         <v>17</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E34" s="0" t="str">
         <f aca="false">IF((C34="GND"),"GND", "SIGNAL")</f>
@@ -1675,21 +1706,21 @@
         <v>17</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E35" s="0" t="str">
         <f aca="false">IF((C35="GND"),"GND", "SIGNAL")</f>
@@ -1711,21 +1742,21 @@
         <v>17</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E36" s="0" t="str">
         <f aca="false">IF((C36="GND"),"GND", "SIGNAL")</f>
@@ -1747,21 +1778,21 @@
         <v>17</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E37" s="0" t="str">
         <f aca="false">IF((C37="GND"),"GND", "SIGNAL")</f>
@@ -1783,21 +1814,21 @@
         <v>17</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E38" s="0" t="str">
         <f aca="false">IF((C38="GND"),"GND", "SIGNAL")</f>
@@ -1819,21 +1850,21 @@
         <v>17</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E39" s="0" t="str">
         <f aca="false">IF((C39="GND"),"GND", "SIGNAL")</f>
@@ -1855,7 +1886,7 @@
         <v>17</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1911,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
@@ -1893,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1959,10 +1990,10 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
@@ -1974,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -1982,326 +2013,326 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>30</v>
@@ -2312,112 +2343,569 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>9.28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>11.82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>19.44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>-4.22</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>27.06</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>-39.5</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>-11.92</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>-37.11</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>-29.62</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>-27.08</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-24.54</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>-19.46</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>-16.92</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>-14.38</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>-9.3</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>42.3</v>
       </c>
     </row>
   </sheetData>
